--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neo1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7055113968594831</v>
+        <v>0.211106</v>
       </c>
       <c r="H2">
-        <v>0.7055113968594831</v>
+        <v>0.6333179999999999</v>
       </c>
       <c r="I2">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="J2">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.90316843546414</v>
+        <v>1.958978666666666</v>
       </c>
       <c r="N2">
-        <v>1.90316843546414</v>
+        <v>5.876935999999999</v>
       </c>
       <c r="O2">
-        <v>0.04382566701257665</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="P2">
-        <v>0.04382566701257665</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="Q2">
-        <v>1.342707021363182</v>
+        <v>0.4135521504053332</v>
       </c>
       <c r="R2">
-        <v>1.342707021363182</v>
+        <v>3.721969353647999</v>
       </c>
       <c r="S2">
-        <v>0.01494507743194398</v>
+        <v>0.003546307439997775</v>
       </c>
       <c r="T2">
-        <v>0.01494507743194398</v>
+        <v>0.003546307439997775</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7055113968594831</v>
+        <v>0.211106</v>
       </c>
       <c r="H3">
-        <v>0.7055113968594831</v>
+        <v>0.6333179999999999</v>
       </c>
       <c r="I3">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="J3">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.7822875133015</v>
+        <v>26.851518</v>
       </c>
       <c r="N3">
-        <v>26.7822875133015</v>
+        <v>80.554554</v>
       </c>
       <c r="O3">
-        <v>0.6167355408596766</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="P3">
-        <v>0.6167355408596766</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="Q3">
-        <v>18.89520907460163</v>
+        <v>5.668516558907999</v>
       </c>
       <c r="R3">
-        <v>18.89520907460163</v>
+        <v>51.01664903017199</v>
       </c>
       <c r="S3">
-        <v>0.2103142072095484</v>
+        <v>0.04860886934550633</v>
       </c>
       <c r="T3">
-        <v>0.2103142072095484</v>
+        <v>0.04860886934550633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7055113968594831</v>
+        <v>0.211106</v>
       </c>
       <c r="H4">
-        <v>0.7055113968594831</v>
+        <v>0.6333179999999999</v>
       </c>
       <c r="I4">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="J4">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.420206054720799</v>
+        <v>0.1288926666666667</v>
       </c>
       <c r="N4">
-        <v>0.420206054720799</v>
+        <v>0.386678</v>
       </c>
       <c r="O4">
-        <v>0.009676395576816666</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="P4">
-        <v>0.009676395576816666</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="Q4">
-        <v>0.2964601606348833</v>
+        <v>0.02721001528933334</v>
       </c>
       <c r="R4">
-        <v>0.2964601606348833</v>
+        <v>0.244890137604</v>
       </c>
       <c r="S4">
-        <v>0.003299766803689383</v>
+        <v>0.0002333323126682782</v>
       </c>
       <c r="T4">
-        <v>0.003299766803689383</v>
+        <v>0.0002333323126682781</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7055113968594831</v>
+        <v>0.211106</v>
       </c>
       <c r="H5">
-        <v>0.7055113968594831</v>
+        <v>0.6333179999999999</v>
       </c>
       <c r="I5">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="J5">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6017713141398831</v>
+        <v>0.4473283333333333</v>
       </c>
       <c r="N5">
-        <v>0.6017713141398831</v>
+        <v>1.341985</v>
       </c>
       <c r="O5">
-        <v>0.01385743307831993</v>
+        <v>0.009799561315032583</v>
       </c>
       <c r="P5">
-        <v>0.01385743307831993</v>
+        <v>0.009799561315032582</v>
       </c>
       <c r="Q5">
-        <v>0.4245565204287957</v>
+        <v>0.09443369513666666</v>
       </c>
       <c r="R5">
-        <v>0.4245565204287957</v>
+        <v>0.84990325623</v>
       </c>
       <c r="S5">
-        <v>0.004725550675681482</v>
+        <v>0.0008097912568497285</v>
       </c>
       <c r="T5">
-        <v>0.004725550675681482</v>
+        <v>0.0008097912568497284</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7055113968594831</v>
+        <v>0.211106</v>
       </c>
       <c r="H6">
-        <v>0.7055113968594831</v>
+        <v>0.6333179999999999</v>
       </c>
       <c r="I6">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="J6">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.718453045221</v>
+        <v>0.6170946666666667</v>
       </c>
       <c r="N6">
-        <v>13.718453045221</v>
+        <v>1.851284</v>
       </c>
       <c r="O6">
-        <v>0.3159049634726101</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="P6">
-        <v>0.3159049634726101</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="Q6">
-        <v>9.678524970685098</v>
+        <v>0.1302723867013333</v>
       </c>
       <c r="R6">
-        <v>9.678524970685098</v>
+        <v>1.172451480312</v>
       </c>
       <c r="S6">
-        <v>0.1077273767191893</v>
+        <v>0.001117116508117298</v>
       </c>
       <c r="T6">
-        <v>0.1077273767191893</v>
+        <v>0.001117116508117298</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.315503850294105</v>
+        <v>0.211106</v>
       </c>
       <c r="H7">
-        <v>0.315503850294105</v>
+        <v>0.6333179999999999</v>
       </c>
       <c r="I7">
-        <v>0.1525001478351416</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="J7">
-        <v>0.1525001478351416</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.90316843546414</v>
+        <v>15.64397933333333</v>
       </c>
       <c r="N7">
-        <v>1.90316843546414</v>
+        <v>46.931938</v>
       </c>
       <c r="O7">
-        <v>0.04382566701257665</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="P7">
-        <v>0.04382566701257665</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="Q7">
-        <v>0.6004569691471441</v>
+        <v>3.302537901142667</v>
       </c>
       <c r="R7">
-        <v>0.6004569691471441</v>
+        <v>29.722841110284</v>
       </c>
       <c r="S7">
-        <v>0.006683420698391628</v>
+        <v>0.028320043114799</v>
       </c>
       <c r="T7">
-        <v>0.006683420698391628</v>
+        <v>0.028320043114799</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.315503850294105</v>
+        <v>0.7338789999999999</v>
       </c>
       <c r="H8">
-        <v>0.315503850294105</v>
+        <v>2.201637</v>
       </c>
       <c r="I8">
-        <v>0.1525001478351416</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="J8">
-        <v>0.1525001478351416</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.7822875133015</v>
+        <v>1.958978666666666</v>
       </c>
       <c r="N8">
-        <v>26.7822875133015</v>
+        <v>5.876935999999999</v>
       </c>
       <c r="O8">
-        <v>0.6167355408596766</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="P8">
-        <v>0.6167355408596766</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="Q8">
-        <v>8.449914830130353</v>
+        <v>1.437653304914666</v>
       </c>
       <c r="R8">
-        <v>8.449914830130353</v>
+        <v>12.938879744232</v>
       </c>
       <c r="S8">
-        <v>0.09405226115628672</v>
+        <v>0.01232821690410565</v>
       </c>
       <c r="T8">
-        <v>0.09405226115628672</v>
+        <v>0.01232821690410565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.315503850294105</v>
+        <v>0.7338789999999999</v>
       </c>
       <c r="H9">
-        <v>0.315503850294105</v>
+        <v>2.201637</v>
       </c>
       <c r="I9">
-        <v>0.1525001478351416</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="J9">
-        <v>0.1525001478351416</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.420206054720799</v>
+        <v>26.851518</v>
       </c>
       <c r="N9">
-        <v>0.420206054720799</v>
+        <v>80.554554</v>
       </c>
       <c r="O9">
-        <v>0.009676395576816666</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="P9">
-        <v>0.009676395576816666</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="Q9">
-        <v>0.1325766281813075</v>
+        <v>19.705765178322</v>
       </c>
       <c r="R9">
-        <v>0.1325766281813075</v>
+        <v>177.351886604898</v>
       </c>
       <c r="S9">
-        <v>0.001475651755975852</v>
+        <v>0.1689815942058058</v>
       </c>
       <c r="T9">
-        <v>0.001475651755975852</v>
+        <v>0.1689815942058058</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.315503850294105</v>
+        <v>0.7338789999999999</v>
       </c>
       <c r="H10">
-        <v>0.315503850294105</v>
+        <v>2.201637</v>
       </c>
       <c r="I10">
-        <v>0.1525001478351416</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="J10">
-        <v>0.1525001478351416</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.6017713141398831</v>
+        <v>0.1288926666666667</v>
       </c>
       <c r="N10">
-        <v>0.6017713141398831</v>
+        <v>0.386678</v>
       </c>
       <c r="O10">
-        <v>0.01385743307831993</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="P10">
-        <v>0.01385743307831993</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="Q10">
-        <v>0.1898611666076765</v>
+        <v>0.09459162132066667</v>
       </c>
       <c r="R10">
-        <v>0.1898611666076765</v>
+        <v>0.851324591886</v>
       </c>
       <c r="S10">
-        <v>0.002113260593059372</v>
+        <v>0.0008111455112061397</v>
       </c>
       <c r="T10">
-        <v>0.002113260593059372</v>
+        <v>0.0008111455112061396</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.315503850294105</v>
+        <v>0.7338789999999999</v>
       </c>
       <c r="H11">
-        <v>0.315503850294105</v>
+        <v>2.201637</v>
       </c>
       <c r="I11">
-        <v>0.1525001478351416</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="J11">
-        <v>0.1525001478351416</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.718453045221</v>
+        <v>0.4473283333333333</v>
       </c>
       <c r="N11">
-        <v>13.718453045221</v>
+        <v>1.341985</v>
       </c>
       <c r="O11">
-        <v>0.3159049634726101</v>
+        <v>0.009799561315032583</v>
       </c>
       <c r="P11">
-        <v>0.3159049634726101</v>
+        <v>0.009799561315032582</v>
       </c>
       <c r="Q11">
-        <v>4.328224755846115</v>
+        <v>0.3282848699383333</v>
       </c>
       <c r="R11">
-        <v>4.328224755846115</v>
+        <v>2.954563829445</v>
       </c>
       <c r="S11">
-        <v>0.04817555363142806</v>
+        <v>0.002815120355582607</v>
       </c>
       <c r="T11">
-        <v>0.04817555363142806</v>
+        <v>0.002815120355582607</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.273199619652754</v>
+        <v>0.7338789999999999</v>
       </c>
       <c r="H12">
-        <v>0.273199619652754</v>
+        <v>2.201637</v>
       </c>
       <c r="I12">
-        <v>0.132052215358742</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="J12">
-        <v>0.132052215358742</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.90316843546414</v>
+        <v>0.6170946666666667</v>
       </c>
       <c r="N12">
-        <v>1.90316843546414</v>
+        <v>1.851284</v>
       </c>
       <c r="O12">
-        <v>0.04382566701257665</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="P12">
-        <v>0.04382566701257665</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="Q12">
-        <v>0.51994489270393</v>
+        <v>0.4528728168786667</v>
       </c>
       <c r="R12">
-        <v>0.51994489270393</v>
+        <v>4.075855351908</v>
       </c>
       <c r="S12">
-        <v>0.005787276418585287</v>
+        <v>0.003883491449132733</v>
       </c>
       <c r="T12">
-        <v>0.005787276418585287</v>
+        <v>0.003883491449132733</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.273199619652754</v>
+        <v>0.7338789999999999</v>
       </c>
       <c r="H13">
-        <v>0.273199619652754</v>
+        <v>2.201637</v>
       </c>
       <c r="I13">
-        <v>0.132052215358742</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="J13">
-        <v>0.132052215358742</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.7822875133015</v>
+        <v>15.64397933333333</v>
       </c>
       <c r="N13">
-        <v>26.7822875133015</v>
+        <v>46.931938</v>
       </c>
       <c r="O13">
-        <v>0.6167355408596766</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="P13">
-        <v>0.6167355408596766</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="Q13">
-        <v>7.316910762064674</v>
+        <v>11.48078790916733</v>
       </c>
       <c r="R13">
-        <v>7.316910762064674</v>
+        <v>103.327091182506</v>
       </c>
       <c r="S13">
-        <v>0.08144129446099226</v>
+        <v>0.09845047000580548</v>
       </c>
       <c r="T13">
-        <v>0.08144129446099226</v>
+        <v>0.09845047000580548</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.273199619652754</v>
+        <v>0.3608143333333333</v>
       </c>
       <c r="H14">
-        <v>0.273199619652754</v>
+        <v>1.082443</v>
       </c>
       <c r="I14">
-        <v>0.132052215358742</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="J14">
-        <v>0.132052215358742</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.420206054720799</v>
+        <v>1.958978666666666</v>
       </c>
       <c r="N14">
-        <v>0.420206054720799</v>
+        <v>5.876935999999999</v>
       </c>
       <c r="O14">
-        <v>0.009676395576816666</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="P14">
-        <v>0.009676395576816666</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="Q14">
-        <v>0.1148001343255066</v>
+        <v>0.7068275816275554</v>
       </c>
       <c r="R14">
-        <v>0.1148001343255066</v>
+        <v>6.361448234647999</v>
       </c>
       <c r="S14">
-        <v>0.001277789472606173</v>
+        <v>0.006061213583497566</v>
       </c>
       <c r="T14">
-        <v>0.001277789472606173</v>
+        <v>0.006061213583497567</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.273199619652754</v>
+        <v>0.3608143333333333</v>
       </c>
       <c r="H15">
-        <v>0.273199619652754</v>
+        <v>1.082443</v>
       </c>
       <c r="I15">
-        <v>0.132052215358742</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="J15">
-        <v>0.132052215358742</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6017713141398831</v>
+        <v>26.851518</v>
       </c>
       <c r="N15">
-        <v>0.6017713141398831</v>
+        <v>80.554554</v>
       </c>
       <c r="O15">
-        <v>0.01385743307831993</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="P15">
-        <v>0.01385743307831993</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="Q15">
-        <v>0.164403694140954</v>
+        <v>9.688412566158</v>
       </c>
       <c r="R15">
-        <v>0.164403694140954</v>
+        <v>87.19571309542199</v>
       </c>
       <c r="S15">
-        <v>0.001829904737177659</v>
+        <v>0.08308042778029033</v>
       </c>
       <c r="T15">
-        <v>0.001829904737177659</v>
+        <v>0.08308042778029034</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.273199619652754</v>
+        <v>0.3608143333333333</v>
       </c>
       <c r="H16">
-        <v>0.273199619652754</v>
+        <v>1.082443</v>
       </c>
       <c r="I16">
-        <v>0.132052215358742</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="J16">
-        <v>0.132052215358742</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>13.718453045221</v>
+        <v>0.1288926666666667</v>
       </c>
       <c r="N16">
-        <v>13.718453045221</v>
+        <v>0.386678</v>
       </c>
       <c r="O16">
-        <v>0.3159049634726101</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="P16">
-        <v>0.3159049634726101</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="Q16">
-        <v>3.747876154178543</v>
+        <v>0.0465063215948889</v>
       </c>
       <c r="R16">
-        <v>3.747876154178543</v>
+        <v>0.4185568943540001</v>
       </c>
       <c r="S16">
-        <v>0.04171595026938064</v>
+        <v>0.0003988027002573574</v>
       </c>
       <c r="T16">
-        <v>0.04171595026938064</v>
+        <v>0.0003988027002573574</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.346833382705362</v>
+        <v>0.3608143333333333</v>
       </c>
       <c r="H17">
-        <v>0.346833382705362</v>
+        <v>1.082443</v>
       </c>
       <c r="I17">
-        <v>0.1676434125524148</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="J17">
-        <v>0.1676434125524148</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.90316843546414</v>
+        <v>0.4473283333333333</v>
       </c>
       <c r="N17">
-        <v>1.90316843546414</v>
+        <v>1.341985</v>
       </c>
       <c r="O17">
-        <v>0.04382566701257665</v>
+        <v>0.009799561315032583</v>
       </c>
       <c r="P17">
-        <v>0.04382566701257665</v>
+        <v>0.009799561315032582</v>
       </c>
       <c r="Q17">
-        <v>0.6600823463300991</v>
+        <v>0.1614024743727778</v>
       </c>
       <c r="R17">
-        <v>0.6600823463300991</v>
+        <v>1.452622269355</v>
       </c>
       <c r="S17">
-        <v>0.007347084375374143</v>
+        <v>0.001384064368039738</v>
       </c>
       <c r="T17">
-        <v>0.007347084375374143</v>
+        <v>0.001384064368039738</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.346833382705362</v>
+        <v>0.3608143333333333</v>
       </c>
       <c r="H18">
-        <v>0.346833382705362</v>
+        <v>1.082443</v>
       </c>
       <c r="I18">
-        <v>0.1676434125524148</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="J18">
-        <v>0.1676434125524148</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.7822875133015</v>
+        <v>0.6170946666666667</v>
       </c>
       <c r="N18">
-        <v>26.7822875133015</v>
+        <v>1.851284</v>
       </c>
       <c r="O18">
-        <v>0.6167355408596766</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="P18">
-        <v>0.6167355408596766</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="Q18">
-        <v>9.288991374825939</v>
+        <v>0.2226566007568889</v>
       </c>
       <c r="R18">
-        <v>9.288991374825939</v>
+        <v>2.003909406812</v>
       </c>
       <c r="S18">
-        <v>0.1033916507120754</v>
+        <v>0.001909332980265858</v>
       </c>
       <c r="T18">
-        <v>0.1033916507120754</v>
+        <v>0.001909332980265859</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.346833382705362</v>
+        <v>0.3608143333333333</v>
       </c>
       <c r="H19">
-        <v>0.346833382705362</v>
+        <v>1.082443</v>
       </c>
       <c r="I19">
-        <v>0.1676434125524148</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="J19">
-        <v>0.1676434125524148</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.420206054720799</v>
+        <v>15.64397933333333</v>
       </c>
       <c r="N19">
-        <v>0.420206054720799</v>
+        <v>46.931938</v>
       </c>
       <c r="O19">
-        <v>0.009676395576816666</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="P19">
-        <v>0.009676395576816666</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="Q19">
-        <v>0.1457414873920892</v>
+        <v>5.644571973837111</v>
       </c>
       <c r="R19">
-        <v>0.1457414873920892</v>
+        <v>50.80114776453401</v>
       </c>
       <c r="S19">
-        <v>0.001622183975704638</v>
+        <v>0.04840353886880267</v>
       </c>
       <c r="T19">
-        <v>0.001622183975704638</v>
+        <v>0.04840353886880268</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.346833382705362</v>
+        <v>0.3323383333333333</v>
       </c>
       <c r="H20">
-        <v>0.346833382705362</v>
+        <v>0.997015</v>
       </c>
       <c r="I20">
-        <v>0.1676434125524148</v>
+        <v>0.1300907176645923</v>
       </c>
       <c r="J20">
-        <v>0.1676434125524148</v>
+        <v>0.1300907176645923</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6017713141398831</v>
+        <v>1.958978666666666</v>
       </c>
       <c r="N20">
-        <v>0.6017713141398831</v>
+        <v>5.876935999999999</v>
       </c>
       <c r="O20">
-        <v>0.01385743307831993</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="P20">
-        <v>0.01385743307831993</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="Q20">
-        <v>0.2087143804981867</v>
+        <v>0.6510437051155554</v>
       </c>
       <c r="R20">
-        <v>0.2087143804981867</v>
+        <v>5.859393346039999</v>
       </c>
       <c r="S20">
-        <v>0.002323107370466268</v>
+        <v>0.005582853656913875</v>
       </c>
       <c r="T20">
-        <v>0.002323107370466268</v>
+        <v>0.005582853656913875</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.346833382705362</v>
+        <v>0.3323383333333333</v>
       </c>
       <c r="H21">
-        <v>0.346833382705362</v>
+        <v>0.997015</v>
       </c>
       <c r="I21">
-        <v>0.1676434125524148</v>
+        <v>0.1300907176645923</v>
       </c>
       <c r="J21">
-        <v>0.1676434125524148</v>
+        <v>0.1300907176645923</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.718453045221</v>
+        <v>26.851518</v>
       </c>
       <c r="N21">
-        <v>13.718453045221</v>
+        <v>80.554554</v>
       </c>
       <c r="O21">
-        <v>0.3159049634726101</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="P21">
-        <v>0.3159049634726101</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="Q21">
-        <v>4.758017475158674</v>
+        <v>8.92378873959</v>
       </c>
       <c r="R21">
-        <v>4.758017475158674</v>
+        <v>80.31409865630999</v>
       </c>
       <c r="S21">
-        <v>0.0529593861187943</v>
+        <v>0.07652359773527674</v>
       </c>
       <c r="T21">
-        <v>0.0529593861187943</v>
+        <v>0.07652359773527674</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.42782745174451</v>
+        <v>0.3323383333333333</v>
       </c>
       <c r="H22">
-        <v>0.42782745174451</v>
+        <v>0.997015</v>
       </c>
       <c r="I22">
-        <v>0.2067922454136489</v>
+        <v>0.1300907176645923</v>
       </c>
       <c r="J22">
-        <v>0.2067922454136489</v>
+        <v>0.1300907176645923</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.90316843546414</v>
+        <v>0.1288926666666667</v>
       </c>
       <c r="N22">
-        <v>1.90316843546414</v>
+        <v>0.386678</v>
       </c>
       <c r="O22">
-        <v>0.04382566701257665</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="P22">
-        <v>0.04382566701257665</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="Q22">
-        <v>0.8142277019852089</v>
+        <v>0.0428359740188889</v>
       </c>
       <c r="R22">
-        <v>0.8142277019852089</v>
+        <v>0.38552376617</v>
       </c>
       <c r="S22">
-        <v>0.009062808088281606</v>
+        <v>0.0003673286022424175</v>
       </c>
       <c r="T22">
-        <v>0.009062808088281606</v>
+        <v>0.0003673286022424175</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.42782745174451</v>
+        <v>0.3323383333333333</v>
       </c>
       <c r="H23">
-        <v>0.42782745174451</v>
+        <v>0.997015</v>
       </c>
       <c r="I23">
-        <v>0.2067922454136489</v>
+        <v>0.1300907176645923</v>
       </c>
       <c r="J23">
-        <v>0.2067922454136489</v>
+        <v>0.1300907176645923</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>26.7822875133015</v>
+        <v>0.4473283333333333</v>
       </c>
       <c r="N23">
-        <v>26.7822875133015</v>
+        <v>1.341985</v>
       </c>
       <c r="O23">
-        <v>0.6167355408596766</v>
+        <v>0.009799561315032583</v>
       </c>
       <c r="P23">
-        <v>0.6167355408596766</v>
+        <v>0.009799561315032582</v>
       </c>
       <c r="Q23">
-        <v>11.45819781870459</v>
+        <v>0.1486643527527778</v>
       </c>
       <c r="R23">
-        <v>11.45819781870459</v>
+        <v>1.337979174775</v>
       </c>
       <c r="S23">
-        <v>0.1275361273207737</v>
+        <v>0.001274831964270765</v>
       </c>
       <c r="T23">
-        <v>0.1275361273207737</v>
+        <v>0.001274831964270764</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.42782745174451</v>
+        <v>0.3323383333333333</v>
       </c>
       <c r="H24">
-        <v>0.42782745174451</v>
+        <v>0.997015</v>
       </c>
       <c r="I24">
-        <v>0.2067922454136489</v>
+        <v>0.1300907176645923</v>
       </c>
       <c r="J24">
-        <v>0.2067922454136489</v>
+        <v>0.1300907176645923</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.420206054720799</v>
+        <v>0.6170946666666667</v>
       </c>
       <c r="N24">
-        <v>0.420206054720799</v>
+        <v>1.851284</v>
       </c>
       <c r="O24">
-        <v>0.009676395576816666</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="P24">
-        <v>0.009676395576816666</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="Q24">
-        <v>0.1797756855988136</v>
+        <v>0.2050842130288889</v>
       </c>
       <c r="R24">
-        <v>0.1797756855988136</v>
+        <v>1.84575791726</v>
       </c>
       <c r="S24">
-        <v>0.002001003568840619</v>
+        <v>0.001758645601957576</v>
       </c>
       <c r="T24">
-        <v>0.002001003568840619</v>
+        <v>0.001758645601957576</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.42782745174451</v>
+        <v>0.3323383333333333</v>
       </c>
       <c r="H25">
-        <v>0.42782745174451</v>
+        <v>0.997015</v>
       </c>
       <c r="I25">
-        <v>0.2067922454136489</v>
+        <v>0.1300907176645923</v>
       </c>
       <c r="J25">
-        <v>0.2067922454136489</v>
+        <v>0.1300907176645923</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6017713141398831</v>
+        <v>15.64397933333333</v>
       </c>
       <c r="N25">
-        <v>0.6017713141398831</v>
+        <v>46.931938</v>
       </c>
       <c r="O25">
-        <v>0.01385743307831993</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="P25">
-        <v>0.01385743307831993</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="Q25">
-        <v>0.2574542878614112</v>
+        <v>5.199094018341111</v>
       </c>
       <c r="R25">
-        <v>0.2574542878614112</v>
+        <v>46.79184616507</v>
       </c>
       <c r="S25">
-        <v>0.002865609701935152</v>
+        <v>0.04458346010393092</v>
       </c>
       <c r="T25">
-        <v>0.002865609701935152</v>
+        <v>0.04458346010393092</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3734286666666666</v>
+      </c>
+      <c r="H26">
+        <v>1.120286</v>
+      </c>
+      <c r="I26">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="J26">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.958978666666666</v>
+      </c>
+      <c r="N26">
+        <v>5.876935999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.04291508077699997</v>
+      </c>
+      <c r="P26">
+        <v>0.04291508077699997</v>
+      </c>
+      <c r="Q26">
+        <v>0.7315387915217776</v>
+      </c>
+      <c r="R26">
+        <v>6.583849123695998</v>
+      </c>
+      <c r="S26">
+        <v>0.006273118049266478</v>
+      </c>
+      <c r="T26">
+        <v>0.006273118049266478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.3734286666666666</v>
+      </c>
+      <c r="H27">
+        <v>1.120286</v>
+      </c>
+      <c r="I27">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="J27">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>26.851518</v>
+      </c>
+      <c r="N27">
+        <v>80.554554</v>
+      </c>
+      <c r="O27">
+        <v>0.5882325742300422</v>
+      </c>
+      <c r="P27">
+        <v>0.5882325742300422</v>
+      </c>
+      <c r="Q27">
+        <v>10.027126564716</v>
+      </c>
+      <c r="R27">
+        <v>90.24413908244399</v>
+      </c>
+      <c r="S27">
+        <v>0.08598498037889324</v>
+      </c>
+      <c r="T27">
+        <v>0.08598498037889324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.3734286666666666</v>
+      </c>
+      <c r="H28">
+        <v>1.120286</v>
+      </c>
+      <c r="I28">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="J28">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1288926666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.386678</v>
+      </c>
+      <c r="O28">
+        <v>0.002823634221078603</v>
+      </c>
+      <c r="P28">
+        <v>0.002823634221078603</v>
+      </c>
+      <c r="Q28">
+        <v>0.04813221665644445</v>
+      </c>
+      <c r="R28">
+        <v>0.433189949908</v>
+      </c>
+      <c r="S28">
+        <v>0.0004127451347188848</v>
+      </c>
+      <c r="T28">
+        <v>0.0004127451347188848</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.3734286666666666</v>
+      </c>
+      <c r="H29">
+        <v>1.120286</v>
+      </c>
+      <c r="I29">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="J29">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.4473283333333333</v>
+      </c>
+      <c r="N29">
+        <v>1.341985</v>
+      </c>
+      <c r="O29">
+        <v>0.009799561315032583</v>
+      </c>
+      <c r="P29">
+        <v>0.009799561315032582</v>
+      </c>
+      <c r="Q29">
+        <v>0.1670452230788889</v>
+      </c>
+      <c r="R29">
+        <v>1.50340700771</v>
+      </c>
+      <c r="S29">
+        <v>0.001432452271956829</v>
+      </c>
+      <c r="T29">
+        <v>0.001432452271956829</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.3734286666666666</v>
+      </c>
+      <c r="H30">
+        <v>1.120286</v>
+      </c>
+      <c r="I30">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="J30">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6170946666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.851284</v>
+      </c>
+      <c r="O30">
+        <v>0.01351860942524602</v>
+      </c>
+      <c r="P30">
+        <v>0.01351860942524602</v>
+      </c>
+      <c r="Q30">
+        <v>0.2304408385804444</v>
+      </c>
+      <c r="R30">
+        <v>2.073967547224</v>
+      </c>
+      <c r="S30">
+        <v>0.001976084659543382</v>
+      </c>
+      <c r="T30">
+        <v>0.001976084659543382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3734286666666666</v>
+      </c>
+      <c r="H31">
+        <v>1.120286</v>
+      </c>
+      <c r="I31">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="J31">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>15.64397933333333</v>
+      </c>
+      <c r="N31">
+        <v>46.931938</v>
+      </c>
+      <c r="O31">
+        <v>0.3427105400316007</v>
+      </c>
+      <c r="P31">
+        <v>0.3427105400316007</v>
+      </c>
+      <c r="Q31">
+        <v>5.841910343807555</v>
+      </c>
+      <c r="R31">
+        <v>52.577193094268</v>
+      </c>
+      <c r="S31">
+        <v>0.05009576203566882</v>
+      </c>
+      <c r="T31">
+        <v>0.05009576203566882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.5430996666666666</v>
+      </c>
+      <c r="H32">
+        <v>1.629299</v>
+      </c>
+      <c r="I32">
+        <v>0.2125912611146297</v>
+      </c>
+      <c r="J32">
+        <v>0.2125912611146298</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.958978666666666</v>
+      </c>
+      <c r="N32">
+        <v>5.876935999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.04291508077699997</v>
+      </c>
+      <c r="P32">
+        <v>0.04291508077699997</v>
+      </c>
+      <c r="Q32">
+        <v>1.063920660873777</v>
+      </c>
+      <c r="R32">
+        <v>9.575285947863998</v>
+      </c>
+      <c r="S32">
+        <v>0.009123371143218626</v>
+      </c>
+      <c r="T32">
+        <v>0.00912337114321863</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.5430996666666666</v>
+      </c>
+      <c r="H33">
+        <v>1.629299</v>
+      </c>
+      <c r="I33">
+        <v>0.2125912611146297</v>
+      </c>
+      <c r="J33">
+        <v>0.2125912611146298</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>26.851518</v>
+      </c>
+      <c r="N33">
+        <v>80.554554</v>
+      </c>
+      <c r="O33">
+        <v>0.5882325742300422</v>
+      </c>
+      <c r="P33">
+        <v>0.5882325742300422</v>
+      </c>
+      <c r="Q33">
+        <v>14.583050475294</v>
+      </c>
+      <c r="R33">
+        <v>131.247454277646</v>
+      </c>
+      <c r="S33">
+        <v>0.1250531047842697</v>
+      </c>
+      <c r="T33">
+        <v>0.1250531047842697</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.5430996666666666</v>
+      </c>
+      <c r="H34">
+        <v>1.629299</v>
+      </c>
+      <c r="I34">
+        <v>0.2125912611146297</v>
+      </c>
+      <c r="J34">
+        <v>0.2125912611146298</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1288926666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.386678</v>
+      </c>
+      <c r="O34">
+        <v>0.002823634221078603</v>
+      </c>
+      <c r="P34">
+        <v>0.002823634221078603</v>
+      </c>
+      <c r="Q34">
+        <v>0.07000156430244445</v>
+      </c>
+      <c r="R34">
+        <v>0.6300140787220001</v>
+      </c>
+      <c r="S34">
+        <v>0.0006002799599855253</v>
+      </c>
+      <c r="T34">
+        <v>0.0006002799599855254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.5430996666666666</v>
+      </c>
+      <c r="H35">
+        <v>1.629299</v>
+      </c>
+      <c r="I35">
+        <v>0.2125912611146297</v>
+      </c>
+      <c r="J35">
+        <v>0.2125912611146298</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.4473283333333333</v>
+      </c>
+      <c r="N35">
+        <v>1.341985</v>
+      </c>
+      <c r="O35">
+        <v>0.009799561315032583</v>
+      </c>
+      <c r="P35">
+        <v>0.009799561315032582</v>
+      </c>
+      <c r="Q35">
+        <v>0.2429438687238889</v>
+      </c>
+      <c r="R35">
+        <v>2.186494818515</v>
+      </c>
+      <c r="S35">
+        <v>0.002083301098332916</v>
+      </c>
+      <c r="T35">
+        <v>0.002083301098332916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.42782745174451</v>
-      </c>
-      <c r="H26">
-        <v>0.42782745174451</v>
-      </c>
-      <c r="I26">
-        <v>0.2067922454136489</v>
-      </c>
-      <c r="J26">
-        <v>0.2067922454136489</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>13.718453045221</v>
-      </c>
-      <c r="N26">
-        <v>13.718453045221</v>
-      </c>
-      <c r="O26">
-        <v>0.3159049634726101</v>
-      </c>
-      <c r="P26">
-        <v>0.3159049634726101</v>
-      </c>
-      <c r="Q26">
-        <v>5.869130808213614</v>
-      </c>
-      <c r="R26">
-        <v>5.869130808213614</v>
-      </c>
-      <c r="S26">
-        <v>0.06532669673381777</v>
-      </c>
-      <c r="T26">
-        <v>0.06532669673381777</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.5430996666666666</v>
+      </c>
+      <c r="H36">
+        <v>1.629299</v>
+      </c>
+      <c r="I36">
+        <v>0.2125912611146297</v>
+      </c>
+      <c r="J36">
+        <v>0.2125912611146298</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.6170946666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.851284</v>
+      </c>
+      <c r="O36">
+        <v>0.01351860942524602</v>
+      </c>
+      <c r="P36">
+        <v>0.01351860942524602</v>
+      </c>
+      <c r="Q36">
+        <v>0.3351439077684444</v>
+      </c>
+      <c r="R36">
+        <v>3.016295169916</v>
+      </c>
+      <c r="S36">
+        <v>0.002873938226229171</v>
+      </c>
+      <c r="T36">
+        <v>0.002873938226229172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.5430996666666666</v>
+      </c>
+      <c r="H37">
+        <v>1.629299</v>
+      </c>
+      <c r="I37">
+        <v>0.2125912611146297</v>
+      </c>
+      <c r="J37">
+        <v>0.2125912611146298</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>15.64397933333333</v>
+      </c>
+      <c r="N37">
+        <v>46.931938</v>
+      </c>
+      <c r="O37">
+        <v>0.3427105400316007</v>
+      </c>
+      <c r="P37">
+        <v>0.3427105400316007</v>
+      </c>
+      <c r="Q37">
+        <v>8.496239961273556</v>
+      </c>
+      <c r="R37">
+        <v>76.46615965146201</v>
+      </c>
+      <c r="S37">
+        <v>0.07285726590259377</v>
+      </c>
+      <c r="T37">
+        <v>0.0728572659025938</v>
       </c>
     </row>
   </sheetData>
